--- a/exampleTable.xlsx
+++ b/exampleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace_Eclipse\appointmentBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC6F2A65-C23F-4350-9A16-BA38DFA9C64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9228A4C6-A29E-4C95-A3F2-A3918DC5F09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="1440" windowWidth="21600" windowHeight="11385" xr2:uid="{2A0A3309-AEB1-4D6A-BD2A-827387067543}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0A3309-AEB1-4D6A-BD2A-827387067543}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>Venue</t>
   </si>
@@ -128,15 +128,36 @@
   </si>
   <si>
     <t>Employee 9</t>
+  </si>
+  <si>
+    <t>11/01/2021</t>
+  </si>
+  <si>
+    <t>11/04/2021</t>
+  </si>
+  <si>
+    <t>11/05/2021</t>
+  </si>
+  <si>
+    <t>11/08/2021</t>
+  </si>
+  <si>
+    <t>11/02/2021</t>
+  </si>
+  <si>
+    <t>11/07/2021</t>
+  </si>
+  <si>
+    <t>11/10/2021</t>
+  </si>
+  <si>
+    <t>11/09/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,15 +167,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -162,23 +189,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -199,7 +281,7 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{6CDB12B0-9D71-4A0E-9280-6BD5D71567E6}" name="Venue"/>
     <tableColumn id="2" xr3:uid="{419D691B-C95E-40B8-B9E0-22B72676594B}" name="Job"/>
-    <tableColumn id="3" xr3:uid="{8376E12A-C146-4965-BD90-CB33C6CAA536}" name="Night"/>
+    <tableColumn id="3" xr3:uid="{8376E12A-C146-4965-BD90-CB33C6CAA536}" name="Night" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{20733F82-1292-436B-BBF8-0FDDD399B49C}" name="Start Date" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{EACD588A-514F-4D4F-BA37-129AE9599CBB}" name="End Date" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{57717A90-E59B-4266-8F00-555EBC0669B4}" name="Install Lead"/>
@@ -506,28 +588,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B689336A-8764-4A2D-9083-3DAE4E8DA235}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -537,21 +625,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1">
-        <v>44501</v>
-      </c>
-      <c r="E2" s="1">
-        <v>44501</v>
+      <c r="D2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -559,22 +647,23 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
+      <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1">
-        <v>44501</v>
-      </c>
-      <c r="E3" s="1">
-        <v>44504</v>
+      <c r="D3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -582,22 +671,23 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
+      <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
-        <v>44502</v>
-      </c>
-      <c r="E4" s="1">
-        <v>44505</v>
+      <c r="D4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -605,22 +695,23 @@
       <c r="G4" t="s">
         <v>18</v>
       </c>
+      <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1">
-        <v>44509</v>
-      </c>
-      <c r="E5" s="1">
-        <v>44510</v>
+      <c r="D5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -628,22 +719,23 @@
       <c r="G5" t="s">
         <v>22</v>
       </c>
+      <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1">
-        <v>44505</v>
-      </c>
-      <c r="E6" s="1">
-        <v>44510</v>
+      <c r="D6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -651,22 +743,23 @@
       <c r="G6" t="s">
         <v>25</v>
       </c>
+      <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1">
-        <v>44502</v>
-      </c>
-      <c r="E7" s="1">
-        <v>44508</v>
+      <c r="D7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -674,22 +767,23 @@
       <c r="G7" t="s">
         <v>28</v>
       </c>
+      <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="1">
-        <v>44506</v>
-      </c>
-      <c r="E8" s="1">
-        <v>44508</v>
+      <c r="D8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -697,11 +791,13 @@
       <c r="G8" t="s">
         <v>31</v>
       </c>
+      <c r="J8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/exampleTable.xlsx
+++ b/exampleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace_Eclipse\appointmentBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9228A4C6-A29E-4C95-A3F2-A3918DC5F09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4772DFCB-DE42-4D0C-BF29-980059C35A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0A3309-AEB1-4D6A-BD2A-827387067543}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>Venue</t>
   </si>
@@ -152,6 +152,15 @@
   </si>
   <si>
     <t>11/09/2021</t>
+  </si>
+  <si>
+    <t>Job 8</t>
+  </si>
+  <si>
+    <t>Job 9</t>
+  </si>
+  <si>
+    <t>11/06/2021</t>
   </si>
 </sst>
 </file>
@@ -204,11 +213,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -588,17 +595,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B689336A-8764-4A2D-9083-3DAE4E8DA235}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -609,13 +618,13 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -624,6 +633,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="J1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -632,13 +642,13 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F2" t="s">
@@ -647,7 +657,7 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -656,13 +666,13 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F3" t="s">
@@ -671,7 +681,7 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -680,13 +690,13 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F4" t="s">
@@ -695,7 +705,7 @@
       <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -704,13 +714,13 @@
       <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F5" t="s">
@@ -719,7 +729,7 @@
       <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -728,13 +738,13 @@
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F6" t="s">
@@ -743,7 +753,7 @@
       <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -752,13 +762,13 @@
       <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F7" t="s">
@@ -767,7 +777,7 @@
       <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -776,13 +786,13 @@
       <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F8" t="s">
@@ -791,7 +801,55 @@
       <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exampleTable.xlsx
+++ b/exampleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace_Eclipse\appointmentBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4772DFCB-DE42-4D0C-BF29-980059C35A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCEB6BA-3E43-4C9D-ACAF-4F3022B536F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0A3309-AEB1-4D6A-BD2A-827387067543}"/>
   </bookViews>
@@ -598,7 +598,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +606,7 @@
     <col min="3" max="3" width="9.140625" style="2"/>
     <col min="4" max="4" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>

--- a/exampleTable.xlsx
+++ b/exampleTable.xlsx
@@ -3,21 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace_Eclipse\appointmentBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCEB6BA-3E43-4C9D-ACAF-4F3022B536F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9CE8AAB-EDDD-4BF4-96DB-41FCDC961EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0A3309-AEB1-4D6A-BD2A-827387067543}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="visual schedule" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
   <si>
     <t>Venue</t>
   </si>
@@ -161,12 +163,16 @@
   </si>
   <si>
     <t>11/06/2021</t>
+  </si>
+  <si>
+    <t>November</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -176,7 +182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +193,26 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -213,12 +239,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,17 +626,17 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" style="2" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -858,4 +886,427 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:AE10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="K1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="L1" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="M1" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="O1" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="P1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="R1" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S1" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="T1" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="U1" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V1" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="W1" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="X1" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="Y1" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="Z1" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2" s="5"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6" s="5"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8"/>
+      <c r="F8" s="5"/>
+      <c r="G8"/>
+      <c r="H8" s="5"/>
+      <c r="I8"/>
+      <c r="J8" s="5"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10" s="5"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>